--- a/SemestrWork1/src/SourcesOfTimSort/TabelWithDiagram.xlsx
+++ b/SemestrWork1/src/SourcesOfTimSort/TabelWithDiagram.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\IdeaProject\ASD_Valeev_11-204\SemestrWork1\src\SourcesOfTimSort\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D973F9E-3680-44E9-9BB7-DAF6B8E2C78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="logsOfIteration" sheetId="1" r:id="rId4"/>
+    <sheet name="logsOfIteration" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -25,15 +34,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -44,32 +54,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -86,7 +111,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="ru-RU" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -99,9 +124,11 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -109,6 +136,12 @@
           <c:tx>
             <c:strRef>
               <c:f>logsOfIteration!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -124,11 +157,328 @@
           <c:val>
             <c:numRef>
               <c:f>logsOfIteration!$B$2:$B$101</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33791</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52208</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69417</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70584</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>198125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98167</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101083</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138541</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>261375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>126041</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128792</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>133375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>272375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>171375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>169791</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>360666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>330459</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>195583</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>177084</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>570458</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>196667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>194667</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>191875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>206125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>207833</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>244333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>227083</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>240459</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>244125</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>255375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>281250</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>268291</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>304292</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>302708</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>315583</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>288250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>283792</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>291625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>312708</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>332667</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>328667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>363084</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2542500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>369917</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>747875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>353917</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>404125</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>407583</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>418542</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>422042</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>653667</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>452041</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>419959</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>786250</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>503667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1078167</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>467125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>984833</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>534500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>541250</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>511333</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>539375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>599167</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>564084</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>572625</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>574000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>572375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1107417</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>588000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2040791</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>734833</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>639875</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>648958</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>642583</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>692583</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>666125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1638625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>678750</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>748084</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>714084</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>720416</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>710791</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1511834</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>738792</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>913792</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F79-4B2A-B588-B910B5A84AD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1956029758"/>
         <c:axId val="1105283232"/>
       </c:lineChart>
@@ -137,7 +487,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -153,15 +503,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -170,22 +512,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
+        <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1105283232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1105283232"/>
@@ -229,7 +562,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="ru-RU" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -261,9 +594,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1956029758"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -281,16 +617,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -307,7 +655,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="ru-RU" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -320,9 +668,11 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -330,6 +680,12 @@
           <c:tx>
             <c:strRef>
               <c:f>logsOfIteration!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Итерации</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -345,11 +701,328 @@
           <c:val>
             <c:numRef>
               <c:f>logsOfIteration!$C$2:$C$101</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10771</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10913</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16457</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16689</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18257</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18393</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21767</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22313</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22529</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23297</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25225</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27649</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28273</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28603</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32787</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37449</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40081</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40729</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41087</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41809</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44353</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46369</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49969</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50383</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53073</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55701</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>57381</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58809</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62173</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62387</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62905</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62965</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>64609</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>73761</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>74245</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75307</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>78927</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>80933</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>82593</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>82873</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>84929</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>86493</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>90215</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90257</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>92727</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>99567</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>101621</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>102481</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>103025</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>103317</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>103317</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>105135</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>105629</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>110867</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>114417</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>117129</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>119375</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>120057</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>125657</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>130501</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>131361</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>134157</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>135189</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>135939</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>139693</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>142273</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>144801</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>163851</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>165845</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>168485</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>169225</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>169249</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>172737</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>172977</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>176489</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>177361</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>177401</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>178037</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>182601</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>184369</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>185921</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>189729</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>189833</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E39C-42BA-9BCB-5FE28C40BD1A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="614913484"/>
         <c:axId val="1288257488"/>
       </c:lineChart>
@@ -358,7 +1031,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -374,15 +1047,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -391,22 +1056,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
+        <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1288257488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1288257488"/>
@@ -450,7 +1106,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="ru-RU" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -482,9 +1138,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614913484"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -502,16 +1161,24 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -520,9 +1187,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Диаграмма"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Диаграмма">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -531,7 +1204,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,9 +1218,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Диаграмма"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="Диаграмма">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -556,7 +1235,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -566,7 +1245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -756,23 +1435,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.63"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,1107 +1465,1108 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1">
-        <v>8750.0</v>
+        <v>8750</v>
       </c>
       <c r="C2" s="1">
-        <v>1581.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="B3" s="1">
-        <v>9708.0</v>
+        <v>9708</v>
       </c>
       <c r="C3" s="1">
-        <v>1859.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="B4" s="1">
-        <v>13250.0</v>
+        <v>13250</v>
       </c>
       <c r="C4" s="1">
-        <v>2645.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="B5" s="1">
-        <v>15791.0</v>
+        <v>15791</v>
       </c>
       <c r="C5" s="1">
-        <v>3097.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>443.0</v>
+        <v>443</v>
       </c>
       <c r="B6" s="1">
-        <v>20667.0</v>
+        <v>20667</v>
       </c>
       <c r="C6" s="1">
-        <v>4313.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="B7" s="1">
-        <v>27250.0</v>
+        <v>27250</v>
       </c>
       <c r="C7" s="1">
-        <v>6161.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>634.0</v>
+        <v>634</v>
       </c>
       <c r="B8" s="1">
-        <v>33791.0</v>
+        <v>33791</v>
       </c>
       <c r="C8" s="1">
-        <v>7121.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>7121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>721.0</v>
+        <v>721</v>
       </c>
       <c r="B9" s="1">
-        <v>37000.0</v>
+        <v>37000</v>
       </c>
       <c r="C9" s="1">
-        <v>8201.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>770.0</v>
+        <v>770</v>
       </c>
       <c r="B10" s="1">
-        <v>41083.0</v>
+        <v>41083</v>
       </c>
       <c r="C10" s="1">
-        <v>9225.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>9225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>899.0</v>
+        <v>899</v>
       </c>
       <c r="B11" s="1">
-        <v>49625.0</v>
+        <v>49625</v>
       </c>
       <c r="C11" s="1">
-        <v>10771.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>10771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>916.0</v>
+        <v>916</v>
       </c>
       <c r="B12" s="1">
-        <v>52208.0</v>
+        <v>52208</v>
       </c>
       <c r="C12" s="1">
-        <v>10913.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>10913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1203.0</v>
+        <v>1203</v>
       </c>
       <c r="B13" s="1">
-        <v>69417.0</v>
+        <v>69417</v>
       </c>
       <c r="C13" s="1">
-        <v>16025.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>16025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1241.0</v>
+        <v>1241</v>
       </c>
       <c r="B14" s="1">
-        <v>70584.0</v>
+        <v>70584</v>
       </c>
       <c r="C14" s="1">
-        <v>16457.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>16457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1251.0</v>
+        <v>1251</v>
       </c>
       <c r="B15" s="1">
-        <v>74667.0</v>
+        <v>74667</v>
       </c>
       <c r="C15" s="1">
-        <v>16601.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>16601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1262.0</v>
+        <v>1262</v>
       </c>
       <c r="B16" s="1">
-        <v>74666.0</v>
+        <v>74666</v>
       </c>
       <c r="C16" s="1">
-        <v>16689.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>16689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1370.0</v>
+        <v>1370</v>
       </c>
       <c r="B17" s="1">
-        <v>85333.0</v>
+        <v>85333</v>
       </c>
       <c r="C17" s="1">
-        <v>18257.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>18257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1379.0</v>
+        <v>1379</v>
       </c>
       <c r="B18" s="1">
-        <v>198125.0</v>
+        <v>198125</v>
       </c>
       <c r="C18" s="1">
-        <v>18393.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>18393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>1569.0</v>
+        <v>1569</v>
       </c>
       <c r="B19" s="1">
-        <v>99125.0</v>
+        <v>99125</v>
       </c>
       <c r="C19" s="1">
-        <v>21767.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>21767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1608.0</v>
+        <v>1608</v>
       </c>
       <c r="B20" s="1">
-        <v>98167.0</v>
+        <v>98167</v>
       </c>
       <c r="C20" s="1">
-        <v>22193.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>22193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1621.0</v>
+        <v>1621</v>
       </c>
       <c r="B21" s="1">
-        <v>97125.0</v>
+        <v>97125</v>
       </c>
       <c r="C21" s="1">
-        <v>22313.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>22313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1640.0</v>
+        <v>1640</v>
       </c>
       <c r="B22" s="1">
-        <v>99125.0</v>
+        <v>99125</v>
       </c>
       <c r="C22" s="1">
-        <v>22529.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>22529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1696.0</v>
+        <v>1696</v>
       </c>
       <c r="B23" s="1">
-        <v>101083.0</v>
+        <v>101083</v>
       </c>
       <c r="C23" s="1">
-        <v>23297.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>23297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1809.0</v>
+        <v>1809</v>
       </c>
       <c r="B24" s="1">
-        <v>138541.0</v>
+        <v>138541</v>
       </c>
       <c r="C24" s="1">
-        <v>25225.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>25225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1984.0</v>
+        <v>1984</v>
       </c>
       <c r="B25" s="1">
-        <v>261375.0</v>
+        <v>261375</v>
       </c>
       <c r="C25" s="1">
-        <v>27649.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>27649</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>126041.0</v>
+        <v>126041</v>
       </c>
       <c r="C26" s="1">
-        <v>28273.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>28273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2043.0</v>
+        <v>2043</v>
       </c>
       <c r="B27" s="1">
-        <v>128792.0</v>
+        <v>128792</v>
       </c>
       <c r="C27" s="1">
-        <v>28603.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>28603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2057.0</v>
+        <v>2057</v>
       </c>
       <c r="B28" s="1">
-        <v>133375.0</v>
+        <v>133375</v>
       </c>
       <c r="C28" s="1">
-        <v>32787.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>32787</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2444.0</v>
+        <v>2444</v>
       </c>
       <c r="B29" s="1">
-        <v>272375.0</v>
+        <v>272375</v>
       </c>
       <c r="C29" s="1">
-        <v>37449.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>37449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2584.0</v>
+        <v>2584</v>
       </c>
       <c r="B30" s="1">
-        <v>171375.0</v>
+        <v>171375</v>
       </c>
       <c r="C30" s="1">
-        <v>40081.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>40081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>2643.0</v>
+        <v>2643</v>
       </c>
       <c r="B31" s="1">
-        <v>169791.0</v>
+        <v>169791</v>
       </c>
       <c r="C31" s="1">
-        <v>40729.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>40729</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2675.0</v>
+        <v>2675</v>
       </c>
       <c r="B32" s="1">
-        <v>360666.0</v>
+        <v>360666</v>
       </c>
       <c r="C32" s="1">
-        <v>41087.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>41087</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>2712.0</v>
+        <v>2712</v>
       </c>
       <c r="B33" s="1">
-        <v>330459.0</v>
+        <v>330459</v>
       </c>
       <c r="C33" s="1">
-        <v>41665.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>41665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2722.0</v>
+        <v>2722</v>
       </c>
       <c r="B34" s="1">
-        <v>195583.0</v>
+        <v>195583</v>
       </c>
       <c r="C34" s="1">
-        <v>41809.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>41809</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2732.0</v>
+        <v>2732</v>
       </c>
       <c r="B35" s="1">
-        <v>177084.0</v>
+        <v>177084</v>
       </c>
       <c r="C35" s="1">
-        <v>41889.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>41889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>2878.0</v>
+        <v>2878</v>
       </c>
       <c r="B36" s="1">
-        <v>570458.0</v>
+        <v>570458</v>
       </c>
       <c r="C36" s="1">
-        <v>44141.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>2888.0</v>
+        <v>2888</v>
       </c>
       <c r="B37" s="1">
-        <v>196667.0</v>
+        <v>196667</v>
       </c>
       <c r="C37" s="1">
-        <v>44353.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>2941.0</v>
+        <v>2941</v>
       </c>
       <c r="B38" s="1">
-        <v>194667.0</v>
+        <v>194667</v>
       </c>
       <c r="C38" s="1">
-        <v>45021.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>2945.0</v>
+        <v>2945</v>
       </c>
       <c r="B39" s="1">
-        <v>191875.0</v>
+        <v>191875</v>
       </c>
       <c r="C39" s="1">
-        <v>45321.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>3024.0</v>
+        <v>3024</v>
       </c>
       <c r="B40" s="1">
-        <v>206125.0</v>
+        <v>206125</v>
       </c>
       <c r="C40" s="1">
-        <v>46369.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>46369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>3158.0</v>
+        <v>3158</v>
       </c>
       <c r="B41" s="1">
-        <v>207833.0</v>
+        <v>207833</v>
       </c>
       <c r="C41" s="1">
-        <v>49969.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>49969</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>3195.0</v>
+        <v>3195</v>
       </c>
       <c r="B42" s="1">
-        <v>244333.0</v>
+        <v>244333</v>
       </c>
       <c r="C42" s="1">
-        <v>50383.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>50383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>3362.0</v>
+        <v>3362</v>
       </c>
       <c r="B43" s="1">
-        <v>227083.0</v>
+        <v>227083</v>
       </c>
       <c r="C43" s="1">
-        <v>53073.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>53073</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>3543.0</v>
+        <v>3543</v>
       </c>
       <c r="B44" s="1">
-        <v>240459.0</v>
+        <v>240459</v>
       </c>
       <c r="C44" s="1">
-        <v>55701.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>55701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>3590.0</v>
+        <v>3590</v>
       </c>
       <c r="B45" s="1">
-        <v>244125.0</v>
+        <v>244125</v>
       </c>
       <c r="C45" s="1">
-        <v>57381.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>57381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>3706.0</v>
+        <v>3706</v>
       </c>
       <c r="B46" s="1">
-        <v>255375.0</v>
+        <v>255375</v>
       </c>
       <c r="C46" s="1">
-        <v>58809.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>58809</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>3901.0</v>
+        <v>3901</v>
       </c>
       <c r="B47" s="1">
-        <v>281250.0</v>
+        <v>281250</v>
       </c>
       <c r="C47" s="1">
-        <v>62173.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>62173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>3909.0</v>
+        <v>3909</v>
       </c>
       <c r="B48" s="1">
-        <v>268291.0</v>
+        <v>268291</v>
       </c>
       <c r="C48" s="1">
-        <v>62387.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>62387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>3946.0</v>
+        <v>3946</v>
       </c>
       <c r="B49" s="1">
-        <v>304292.0</v>
+        <v>304292</v>
       </c>
       <c r="C49" s="1">
-        <v>62905.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>62905</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>3951.0</v>
+        <v>3951</v>
       </c>
       <c r="B50" s="1">
-        <v>302708.0</v>
+        <v>302708</v>
       </c>
       <c r="C50" s="1">
-        <v>62965.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>62965</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>4040.0</v>
+        <v>4040</v>
       </c>
       <c r="B51" s="1">
-        <v>315583.0</v>
+        <v>315583</v>
       </c>
       <c r="C51" s="1">
-        <v>64609.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>64609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>4112.0</v>
+        <v>4112</v>
       </c>
       <c r="B52" s="1">
-        <v>288250.0</v>
+        <v>288250</v>
       </c>
       <c r="C52" s="1">
-        <v>73761.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>73761</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>4161.0</v>
+        <v>4161</v>
       </c>
       <c r="B53" s="1">
-        <v>283792.0</v>
+        <v>283792</v>
       </c>
       <c r="C53" s="1">
-        <v>74245.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>74245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>4263.0</v>
+        <v>4263</v>
       </c>
       <c r="B54" s="1">
-        <v>291625.0</v>
+        <v>291625</v>
       </c>
       <c r="C54" s="1">
-        <v>75307.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>75307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>4539.0</v>
+        <v>4539</v>
       </c>
       <c r="B55" s="1">
-        <v>312708.0</v>
+        <v>312708</v>
       </c>
       <c r="C55" s="1">
-        <v>78927.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>78927</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>4617.0</v>
+        <v>4617</v>
       </c>
       <c r="B56" s="1">
-        <v>332667.0</v>
+        <v>332667</v>
       </c>
       <c r="C56" s="1">
-        <v>80933.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>80933</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>4756.0</v>
+        <v>4756</v>
       </c>
       <c r="B57" s="1">
-        <v>328667.0</v>
+        <v>328667</v>
       </c>
       <c r="C57" s="1">
-        <v>82593.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>82593</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>4783.0</v>
+        <v>4783</v>
       </c>
       <c r="B58" s="1">
-        <v>363084.0</v>
+        <v>363084</v>
       </c>
       <c r="C58" s="1">
-        <v>82873.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>82873</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>4912.0</v>
+        <v>4912</v>
       </c>
       <c r="B59" s="1">
-        <v>2542500.0</v>
+        <v>2542500</v>
       </c>
       <c r="C59" s="1">
-        <v>84929.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>84929</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>5014.0</v>
+        <v>5014</v>
       </c>
       <c r="B60" s="1">
-        <v>369917.0</v>
+        <v>369917</v>
       </c>
       <c r="C60" s="1">
-        <v>86493.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>86493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>5137.0</v>
+        <v>5137</v>
       </c>
       <c r="B61" s="1">
-        <v>747875.0</v>
+        <v>747875</v>
       </c>
       <c r="C61" s="1">
-        <v>90215.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>90215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>5144.0</v>
+        <v>5144</v>
       </c>
       <c r="B62" s="1">
-        <v>353917.0</v>
+        <v>353917</v>
       </c>
       <c r="C62" s="1">
-        <v>90257.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>90257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>5343.0</v>
+        <v>5343</v>
       </c>
       <c r="B63" s="1">
-        <v>404125.0</v>
+        <v>404125</v>
       </c>
       <c r="C63" s="1">
-        <v>92727.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>92727</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>5739.0</v>
+        <v>5739</v>
       </c>
       <c r="B64" s="1">
-        <v>407583.0</v>
+        <v>407583</v>
       </c>
       <c r="C64" s="1">
-        <v>99567.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>99567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>5871.0</v>
+        <v>5871</v>
       </c>
       <c r="B65" s="1">
-        <v>418542.0</v>
+        <v>418542</v>
       </c>
       <c r="C65" s="1">
-        <v>101621.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>101621</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>5898.0</v>
+        <v>5898</v>
       </c>
       <c r="B66" s="1">
-        <v>422042.0</v>
+        <v>422042</v>
       </c>
       <c r="C66" s="1">
-        <v>102481.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>102481</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>5940.0</v>
+        <v>5940</v>
       </c>
       <c r="B67" s="1">
-        <v>653667.0</v>
+        <v>653667</v>
       </c>
       <c r="C67" s="1">
-        <v>103025.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>103025</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>5954.0</v>
+        <v>5954</v>
       </c>
       <c r="B68" s="1">
-        <v>452041.0</v>
+        <v>452041</v>
       </c>
       <c r="C68" s="1">
-        <v>103317.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>103317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>5954.0</v>
+        <v>5954</v>
       </c>
       <c r="B69" s="1">
-        <v>419959.0</v>
+        <v>419959</v>
       </c>
       <c r="C69" s="1">
-        <v>103317.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>103317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>6065.0</v>
+        <v>6065</v>
       </c>
       <c r="B70" s="1">
-        <v>786250.0</v>
+        <v>786250</v>
       </c>
       <c r="C70" s="1">
-        <v>105135.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>105135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>6093.0</v>
+        <v>6093</v>
       </c>
       <c r="B71" s="1">
-        <v>503667.0</v>
+        <v>503667</v>
       </c>
       <c r="C71" s="1">
-        <v>105629.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>105629</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>6179.0</v>
+        <v>6179</v>
       </c>
       <c r="B72" s="1">
-        <v>1078167.0</v>
+        <v>1078167</v>
       </c>
       <c r="C72" s="1">
-        <v>110867.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>110867</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>6430.0</v>
+        <v>6430</v>
       </c>
       <c r="B73" s="1">
-        <v>467125.0</v>
+        <v>467125</v>
       </c>
       <c r="C73" s="1">
-        <v>114417.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>114417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>6614.0</v>
+        <v>6614</v>
       </c>
       <c r="B74" s="1">
-        <v>984833.0</v>
+        <v>984833</v>
       </c>
       <c r="C74" s="1">
-        <v>117129.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>117129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>6715.0</v>
+        <v>6715</v>
       </c>
       <c r="B75" s="1">
-        <v>534500.0</v>
+        <v>534500</v>
       </c>
       <c r="C75" s="1">
-        <v>119375.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>119375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>6764.0</v>
+        <v>6764</v>
       </c>
       <c r="B76" s="1">
-        <v>541250.0</v>
+        <v>541250</v>
       </c>
       <c r="C76" s="1">
-        <v>120057.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>120057</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>7092.0</v>
+        <v>7092</v>
       </c>
       <c r="B77" s="1">
-        <v>511333.0</v>
+        <v>511333</v>
       </c>
       <c r="C77" s="1">
-        <v>125657.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>125657</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>7291.0</v>
+        <v>7291</v>
       </c>
       <c r="B78" s="1">
-        <v>539375.0</v>
+        <v>539375</v>
       </c>
       <c r="C78" s="1">
-        <v>130501.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>130501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>7344.0</v>
+        <v>7344</v>
       </c>
       <c r="B79" s="1">
-        <v>599167.0</v>
+        <v>599167</v>
       </c>
       <c r="C79" s="1">
-        <v>131361.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>131361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>7502.0</v>
+        <v>7502</v>
       </c>
       <c r="B80" s="1">
-        <v>564084.0</v>
+        <v>564084</v>
       </c>
       <c r="C80" s="1">
-        <v>134157.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>134157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>7554.0</v>
+        <v>7554</v>
       </c>
       <c r="B81" s="1">
-        <v>572625.0</v>
+        <v>572625</v>
       </c>
       <c r="C81" s="1">
-        <v>135189.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>135189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>7607.0</v>
+        <v>7607</v>
       </c>
       <c r="B82" s="1">
-        <v>574000.0</v>
+        <v>574000</v>
       </c>
       <c r="C82" s="1">
-        <v>135939.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>135939</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>7785.0</v>
+        <v>7785</v>
       </c>
       <c r="B83" s="1">
-        <v>572375.0</v>
+        <v>572375</v>
       </c>
       <c r="C83" s="1">
-        <v>139693.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>139693</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>7932.0</v>
+        <v>7932</v>
       </c>
       <c r="B84" s="1">
-        <v>1107417.0</v>
+        <v>1107417</v>
       </c>
       <c r="C84" s="1">
-        <v>142273.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>142273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>8058.0</v>
+        <v>8058</v>
       </c>
       <c r="B85" s="1">
-        <v>588000.0</v>
+        <v>588000</v>
       </c>
       <c r="C85" s="1">
-        <v>144801.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>144801</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>8197.0</v>
+        <v>8197</v>
       </c>
       <c r="B86" s="1">
-        <v>2040791.0</v>
+        <v>2040791</v>
       </c>
       <c r="C86" s="1">
-        <v>163851.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>163851</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>8398.0</v>
+        <v>8398</v>
       </c>
       <c r="B87" s="1">
-        <v>734833.0</v>
+        <v>734833</v>
       </c>
       <c r="C87" s="1">
-        <v>165845.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>165845</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>8582.0</v>
+        <v>8582</v>
       </c>
       <c r="B88" s="1">
-        <v>639875.0</v>
+        <v>639875</v>
       </c>
       <c r="C88" s="1">
-        <v>168485.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>168485</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>8641.0</v>
+        <v>8641</v>
       </c>
       <c r="B89" s="1">
-        <v>648958.0</v>
+        <v>648958</v>
       </c>
       <c r="C89" s="1">
-        <v>169225.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>169225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>8644.0</v>
+        <v>8644</v>
       </c>
       <c r="B90" s="1">
-        <v>642583.0</v>
+        <v>642583</v>
       </c>
       <c r="C90" s="1">
-        <v>169249.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>169249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>8856.0</v>
+        <v>8856</v>
       </c>
       <c r="B91" s="1">
-        <v>692583.0</v>
+        <v>692583</v>
       </c>
       <c r="C91" s="1">
-        <v>172737.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>172737</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>8878.0</v>
+        <v>8878</v>
       </c>
       <c r="B92" s="1">
-        <v>666125.0</v>
+        <v>666125</v>
       </c>
       <c r="C92" s="1">
-        <v>172977.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>172977</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>9101.0</v>
+        <v>9101</v>
       </c>
       <c r="B93" s="1">
-        <v>1638625.0</v>
+        <v>1638625</v>
       </c>
       <c r="C93" s="1">
-        <v>176489.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>176489</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>9160.0</v>
+        <v>9160</v>
       </c>
       <c r="B94" s="1">
-        <v>678750.0</v>
+        <v>678750</v>
       </c>
       <c r="C94" s="1">
-        <v>177361.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>177361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>9164.0</v>
+        <v>9164</v>
       </c>
       <c r="B95" s="1">
-        <v>748084.0</v>
+        <v>748084</v>
       </c>
       <c r="C95" s="1">
-        <v>177401.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>177401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>9206.0</v>
+        <v>9206</v>
       </c>
       <c r="B96" s="1">
-        <v>714084.0</v>
+        <v>714084</v>
       </c>
       <c r="C96" s="1">
-        <v>178037.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>178037</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>9417.0</v>
+        <v>9417</v>
       </c>
       <c r="B97" s="1">
-        <v>720416.0</v>
+        <v>720416</v>
       </c>
       <c r="C97" s="1">
-        <v>182601.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>182601</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>9528.0</v>
+        <v>9528</v>
       </c>
       <c r="B98" s="1">
-        <v>710791.0</v>
+        <v>710791</v>
       </c>
       <c r="C98" s="1">
-        <v>184369.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>184369</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>9632.0</v>
+        <v>9632</v>
       </c>
       <c r="B99" s="1">
-        <v>1511834.0</v>
+        <v>1511834</v>
       </c>
       <c r="C99" s="1">
-        <v>185921.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>185921</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>9840.0</v>
+        <v>9840</v>
       </c>
       <c r="B100" s="1">
-        <v>738792.0</v>
+        <v>738792</v>
       </c>
       <c r="C100" s="1">
-        <v>189729.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>189729</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>9846.0</v>
+        <v>9846</v>
       </c>
       <c r="B101" s="1">
-        <v>913792.0</v>
+        <v>913792</v>
       </c>
       <c r="C101" s="1">
-        <v>189833.0</v>
+        <v>189833</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>